--- a/TestModel_v1.xlsx
+++ b/TestModel_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubhav\Desktop\Projects\Saturn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB51F33-34B6-4181-9BF9-8B7DA3F253C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F255C4-24C4-4B2D-A966-9FC50E97F4AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="46080" windowHeight="15720" xr2:uid="{6C8827F4-A16C-4968-AD38-CC02E648186F}"/>
+    <workbookView xWindow="-36108" yWindow="19500" windowWidth="23256" windowHeight="13176" xr2:uid="{6C8827F4-A16C-4968-AD38-CC02E648186F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Projections</t>
+  </si>
+  <si>
+    <t>Sum EV</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8CFA8E-1CCE-4FD0-827B-288D9D3429E8}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,6 +567,31 @@
       <c r="G5">
         <f t="shared" si="0"/>
         <v>117.12800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:G6" si="1">SUM(D3:D5)</f>
+        <v>106.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>116.48000000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>127.12800000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>138.84080000000003</v>
       </c>
     </row>
   </sheetData>

--- a/TestModel_v1.xlsx
+++ b/TestModel_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubhav\Desktop\Projects\Saturn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F255C4-24C4-4B2D-A966-9FC50E97F4AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0742CE0-8310-4DEB-BFF7-804B138BE8FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36108" yWindow="19500" windowWidth="23256" windowHeight="13176" xr2:uid="{6C8827F4-A16C-4968-AD38-CC02E648186F}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Year</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Sum EV</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>MATCH</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8CFA8E-1CCE-4FD0-827B-288D9D3429E8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -550,7 +556,7 @@
       </c>
       <c r="C5">
         <f>C3*C4</f>
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:G5" si="0">D3*D4</f>
@@ -575,7 +581,7 @@
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:G6" si="1">SUM(D3:D5)</f>
@@ -592,6 +598,24 @@
       <c r="G6">
         <f t="shared" si="1"/>
         <v>138.84080000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>CHOOSE(2,C6,D6,E6)</f>
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <f>MATCH(C6,C6:G6,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestModel_v1.xlsx
+++ b/TestModel_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubhav\Desktop\Projects\Saturn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0742CE0-8310-4DEB-BFF7-804B138BE8FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA4EE7-8F06-46ED-B8EA-E717AFB23000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36108" yWindow="19500" windowWidth="23256" windowHeight="13176" xr2:uid="{6C8827F4-A16C-4968-AD38-CC02E648186F}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
